--- a/output.xlsx
+++ b/output.xlsx
@@ -326,541 +326,541 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>0</v>
-      </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>0</v>
-      </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>0</v>
-      </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>0</v>
-      </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>0</v>
-      </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>0</v>
-      </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>0</v>
-      </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>0</v>
-      </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>0</v>
-      </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>0</v>
-      </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>0</v>
-      </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>0</v>
-      </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>0</v>
-      </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
